--- a/医院项目/5-综合评估模型/1-OLGIM评分/2-faster-rcnn-自动统计分三类-有改进模型/新计算方法.xlsx
+++ b/医院项目/5-综合评估模型/1-OLGIM评分/2-faster-rcnn-自动统计分三类-有改进模型/新计算方法.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\姚方浩\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyGithub\DeepLearningForImage\医院项目\5-综合评估模型\1-OLGIM评分\2-faster-rcnn-自动统计分三类-有改进模型\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1591B28B-EFA8-4597-A9CC-A5D342ECC03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553C9E53-2AB6-46DE-97B8-6DFB5484F5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>0-1分最大值x</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,34 +39,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>转换后分数的范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.3-0.3y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3~0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>z</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.3-0.3z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3-0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,14 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.3+0.4softmax(x')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3~0.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.7+0.3x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,14 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>举例：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-1分的新计算方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.3+0.4*0.525=0.51</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,6 +104,38 @@
   </si>
   <si>
     <t>sofmax后，x'=0.356，y'=0.322，z'=0.322</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新计算方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换后分数的范围。表示是0-1分的概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举例：（旧的计算方法）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2-0.2y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2-0.2z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2~0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2+0.5softmax(x')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2~0.7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -163,12 +159,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -183,9 +185,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -474,7 +479,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -493,7 +498,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -505,10 +510,10 @@
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -539,16 +544,16 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -562,13 +567,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -579,10 +584,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -596,22 +601,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>13</v>
+      <c r="E7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -619,203 +624,213 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="1" t="s">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>6</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>7</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>2</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="F20" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>3</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>6</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>7</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>8</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>0.9</v>
       </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>22</v>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
